--- a/IBM_Data_Analyst_Course_Learnings.xlsx
+++ b/IBM_Data_Analyst_Course_Learnings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59BEED87-8C05-4DB5-B12F-8E8391332AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4D9D0A-6A8D-4D6A-9605-3453B2EC7DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81F50A2D-A700-43E4-A75E-A033757AAFC3}"/>
   </bookViews>
@@ -158,6 +158,18 @@
           <a:r>
             <a:rPr lang="en-IN" sz="1100" baseline="0"/>
             <a:t>3 types of cross symbols - Select Cross (Bold), Move Cross (with arrows pointing in four directions),  Fill Cross (small thin black cross)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>Ctrl - used for non contiguous selection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>Shift - used for contiguous selection</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
